--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Spring.030220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Spring.030220.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3333,12 +3333,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3757,12 +3757,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3925,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4553,12 +4553,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6941,12 +6941,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7067,12 +7067,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7109,12 +7109,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7151,12 +7151,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7865,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7907,12 +7907,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7949,12 +7949,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7991,12 +7991,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8453,12 +8453,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8495,12 +8495,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8873,12 +8873,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8999,12 +8999,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9083,12 +9083,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9805,12 +9805,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9935,12 +9935,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9977,12 +9977,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10191,12 +10191,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10275,12 +10275,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10317,12 +10317,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10909,12 +10909,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11035,12 +11035,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11545,12 +11545,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11587,12 +11587,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11759,12 +11759,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11801,12 +11801,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11843,12 +11843,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11889,12 +11889,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11973,12 +11973,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12099,12 +12099,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12141,12 +12141,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12657,12 +12657,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12741,12 +12741,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12865,12 +12865,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12991,12 +12991,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13369,12 +13369,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13623,12 +13623,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14467,12 +14467,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14723,12 +14723,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
